--- a/LWS performance table.xlsx
+++ b/LWS performance table.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>Sandbox</t>
   </si>
@@ -59,6 +59,33 @@
   </si>
   <si>
     <t>6.015 sec</t>
+  </si>
+  <si>
+    <t>Without JSON.stringify()</t>
+  </si>
+  <si>
+    <t>0.544 sec</t>
+  </si>
+  <si>
+    <t>0.603 sec</t>
+  </si>
+  <si>
+    <t>0.435 sec</t>
+  </si>
+  <si>
+    <t>0.529 sec</t>
+  </si>
+  <si>
+    <t>0.554 sec</t>
+  </si>
+  <si>
+    <t>0.524 sec</t>
+  </si>
+  <si>
+    <t>0.378 sec</t>
+  </si>
+  <si>
+    <t>0.482 sec</t>
   </si>
 </sst>
 </file>
@@ -539,7 +566,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" ht="22.5" customHeight="1">
+    <row r="6">
       <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
@@ -577,8 +604,111 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
+    <row r="8">
+      <c r="A8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="18">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="A2:D2"/>
@@ -586,9 +716,17 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="F11:I11"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
